--- a/algoritmit/kt3.xlsx
+++ b/algoritmit/kt3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="12270" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -29,16 +29,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Pino eli stack:</t>
+  </si>
+  <si>
+    <t>Jono el queue:</t>
+  </si>
+  <si>
+    <t>Listaa alkiot järjestyksessä. Lisäys tehdään loppuun ja poisto alusta.</t>
+  </si>
+  <si>
+    <t>T1.</t>
+  </si>
+  <si>
+    <t>Stack:</t>
+  </si>
+  <si>
+    <t>eka</t>
+  </si>
+  <si>
+    <t>kolmas</t>
+  </si>
+  <si>
+    <t>vika</t>
+  </si>
+  <si>
+    <t>push(lisä,Stack)</t>
+  </si>
+  <si>
+    <t>lisä</t>
+  </si>
+  <si>
+    <t>tulos=pop(Stack)</t>
+  </si>
+  <si>
+    <t>tulos=lisä</t>
+  </si>
+  <si>
+    <t>tulos=empty(Stack)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tulos= </t>
+  </si>
+  <si>
+    <t>Listaa alkiot järjestyksessä.  Poisto ja Lisäys tehdään lopusta</t>
+  </si>
+  <si>
+    <t>Queue:</t>
+  </si>
+  <si>
+    <t>enque(lisä, Queue)</t>
+  </si>
+  <si>
+    <t>tulos=deque(Queue)</t>
+  </si>
+  <si>
+    <t>Pino:</t>
+  </si>
+  <si>
+    <t>First-in, First-out</t>
+  </si>
+  <si>
+    <t>Jono:</t>
+  </si>
+  <si>
+    <t>Last-in, First-out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin: = </t>
+  </si>
+  <si>
+    <t>n:=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k:= </t>
+  </si>
+  <si>
+    <t>datat.:=</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>linkit:=</t>
+  </si>
+  <si>
+    <t>Ari(7)</t>
+  </si>
+  <si>
+    <t>Lea(2)</t>
+  </si>
+  <si>
+    <t>Leo(5)</t>
+  </si>
+  <si>
+    <t>Pia(4)</t>
+  </si>
+  <si>
+    <t>Lajittelu:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge, koska indeksointi auttaa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +157,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,15 +194,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -349,26 +499,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:I3" si="0">C3+1</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f>G3+1</f>
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -419,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>

--- a/algoritmit/kt3.xlsx
+++ b/algoritmit/kt3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="12270" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="12270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -655,7 +654,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1812,7 +1810,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
@@ -2253,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="E4:O19" si="4">O3</f>
+        <f t="shared" ref="L4:O19" si="4">O3</f>
         <v>0</v>
       </c>
       <c r="O4">
@@ -2340,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="E7:P22" si="5">L6</f>
+        <f t="shared" ref="E7:K22" si="5">L6</f>
         <v>0</v>
       </c>
       <c r="L7">
@@ -7064,7 +7062,7 @@
         <v>2</v>
       </c>
       <c r="O84">
-        <f t="shared" ref="O84:O133" si="25">P83</f>
+        <f t="shared" ref="O84:O132" si="25">P83</f>
         <v>3</v>
       </c>
       <c r="P84">
@@ -10681,7 +10679,7 @@
       </c>
       <c r="Q142" s="7"/>
       <c r="R142" s="7">
-        <f t="shared" ref="R142:R145" si="37">R141+1</f>
+        <f t="shared" ref="R142:R143" si="37">R141+1</f>
         <v>130</v>
       </c>
       <c r="S142" s="7"/>
@@ -10811,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <f t="shared" ref="E1:X1" si="0">D1+1</f>
+        <f t="shared" ref="E1:W1" si="0">D1+1</f>
         <v>2</v>
       </c>
       <c r="F1">
@@ -10907,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="F2:G2" si="1">F2</f>
+        <f t="shared" ref="G2" si="1">F2</f>
         <v>1</v>
       </c>
       <c r="H2">
@@ -10920,7 +10918,7 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="J2:W2" si="2">J2</f>
+        <f t="shared" ref="K2:T2" si="2">J2</f>
         <v>4</v>
       </c>
       <c r="L2">
@@ -11136,7 +11134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -11164,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:I4" si="0">C4+1</f>
+        <f t="shared" ref="D4:G4" si="0">C4+1</f>
         <v>3</v>
       </c>
       <c r="E4" s="8">
